--- a/Aardvark/obj/Release/Package/PackageTmp/Template.xlsx
+++ b/Aardvark/obj/Release/Package/PackageTmp/Template.xlsx
@@ -348,9 +348,6 @@
     <t>Kirmy</t>
   </si>
   <si>
-    <t>KirmetTheFrog@me.com</t>
-  </si>
-  <si>
     <t>; Each User must have a unique UserName -- will be skipped over if already in database.</t>
   </si>
   <si>
@@ -535,6 +532,9 @@
   </si>
   <si>
     <t>Joe@me.com</t>
+  </si>
+  <si>
+    <t>KermitTheFrog@me.com</t>
   </si>
 </sst>
 </file>
@@ -919,9 +919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G53" activeCellId="2" sqref="G49 G52 G53"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L47" activeCellId="3" sqref="L54 L52 L49 L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,16 +942,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>42233.462126736114</v>
+        <v>42240.331330439818</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1147,28 +1147,28 @@
         <v>109</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
         <v>170</v>
       </c>
-      <c r="B12" t="s">
-        <v>171</v>
-      </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12"/>
       <c r="J12" s="5" t="s">
@@ -1177,14 +1177,14 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14"/>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
         <v>150</v>
-      </c>
-      <c r="B20" t="s">
-        <v>151</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1259,14 +1259,14 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22"/>
@@ -1341,14 +1341,14 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30"/>
@@ -1384,7 +1384,7 @@
         <v>23</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>40</v>
@@ -1440,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>75</v>
@@ -1511,7 +1511,7 @@
         <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="7">
         <v>42229</v>
@@ -1523,7 +1523,7 @@
         <v>79</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>87</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -1561,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>75</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
         <v>78</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
@@ -1644,7 +1644,7 @@
         <v>79</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>87</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="8">
         <v>42201</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
@@ -1723,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>75</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
         <v>78</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
@@ -1806,7 +1806,7 @@
         <v>79</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>87</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
@@ -1844,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>75</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s">
         <v>78</v>
@@ -1876,7 +1876,7 @@
         <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H45" s="7">
         <v>42247</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s">
         <v>84</v>
@@ -1927,7 +1927,7 @@
         <v>79</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>87</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="8">
         <v>42201</v>
@@ -1971,7 +1971,7 @@
         <v>75</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>82</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
@@ -2006,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>75</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
         <v>78</v>
@@ -2053,7 +2053,7 @@
         <v>80</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>82</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
         <v>84</v>
@@ -2089,7 +2089,7 @@
         <v>79</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>87</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
@@ -2127,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>75</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B52" t="s">
         <v>78</v>
@@ -2174,7 +2174,7 @@
         <v>80</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>82</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
         <v>84</v>
@@ -2212,7 +2212,7 @@
         <v>79</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>87</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54" s="8">
         <v>42201</v>
@@ -2256,7 +2256,7 @@
         <v>75</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>82</v>
@@ -2264,14 +2264,14 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56"/>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="58" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" s="10"/>
       <c r="H58" s="11"/>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="59" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C59" s="10"/>
       <c r="H59" s="11"/>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="99" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E107" s="1"/>
     </row>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="113" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
@@ -2783,12 +2783,12 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="118" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="119" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="120" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="121" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="122" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="123" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
     </row>
     <row r="130" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="137" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="138" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="139" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
